--- a/Extracted Data/VRU Headform - Color-wise graphs/2023_cars_combined.xlsx
+++ b/Extracted Data/VRU Headform - Color-wise graphs/2023_cars_combined.xlsx
@@ -7,14 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="D Green" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="Green" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="Yellow" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="Orange" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet name="Brown" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet name="Red" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet name="Default Red" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet name="Blue" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet name="Graphs" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -158,206 +151,171 @@
     </pic>
     <clientData/>
   </oneCellAnchor>
-</wsDr>
-</file>
-
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
-<wsDr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
-  <oneCellAnchor>
-    <from>
-      <col>0</col>
-      <colOff>0</colOff>
-      <row>0</row>
-      <rowOff>0</rowOff>
-    </from>
-    <ext cx="6096000" cy="4572000"/>
-    <pic>
-      <nvPicPr>
-        <cNvPr id="1" name="Image 1" descr="Picture"/>
-        <cNvPicPr/>
-      </nvPicPr>
-      <blipFill>
-        <a:blip cstate="print" r:embed="rId1"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </blipFill>
-      <spPr>
-        <a:prstGeom prst="rect"/>
-      </spPr>
-    </pic>
-    <clientData/>
-  </oneCellAnchor>
-</wsDr>
-</file>
-
-<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
-<wsDr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
-  <oneCellAnchor>
-    <from>
-      <col>0</col>
-      <colOff>0</colOff>
-      <row>0</row>
-      <rowOff>0</rowOff>
-    </from>
-    <ext cx="6096000" cy="4572000"/>
-    <pic>
-      <nvPicPr>
-        <cNvPr id="1" name="Image 1" descr="Picture"/>
-        <cNvPicPr/>
-      </nvPicPr>
-      <blipFill>
-        <a:blip cstate="print" r:embed="rId1"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </blipFill>
-      <spPr>
-        <a:prstGeom prst="rect"/>
-      </spPr>
-    </pic>
-    <clientData/>
-  </oneCellAnchor>
-</wsDr>
-</file>
-
-<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
-<wsDr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
-  <oneCellAnchor>
-    <from>
-      <col>0</col>
-      <colOff>0</colOff>
-      <row>0</row>
-      <rowOff>0</rowOff>
-    </from>
-    <ext cx="6096000" cy="4572000"/>
-    <pic>
-      <nvPicPr>
-        <cNvPr id="1" name="Image 1" descr="Picture"/>
-        <cNvPicPr/>
-      </nvPicPr>
-      <blipFill>
-        <a:blip cstate="print" r:embed="rId1"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </blipFill>
-      <spPr>
-        <a:prstGeom prst="rect"/>
-      </spPr>
-    </pic>
-    <clientData/>
-  </oneCellAnchor>
-</wsDr>
-</file>
-
-<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
-<wsDr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
-  <oneCellAnchor>
-    <from>
-      <col>0</col>
-      <colOff>0</colOff>
-      <row>0</row>
-      <rowOff>0</rowOff>
-    </from>
-    <ext cx="6096000" cy="4572000"/>
-    <pic>
-      <nvPicPr>
-        <cNvPr id="1" name="Image 1" descr="Picture"/>
-        <cNvPicPr/>
-      </nvPicPr>
-      <blipFill>
-        <a:blip cstate="print" r:embed="rId1"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </blipFill>
-      <spPr>
-        <a:prstGeom prst="rect"/>
-      </spPr>
-    </pic>
-    <clientData/>
-  </oneCellAnchor>
-</wsDr>
-</file>
-
-<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
-<wsDr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
-  <oneCellAnchor>
-    <from>
-      <col>0</col>
-      <colOff>0</colOff>
-      <row>0</row>
-      <rowOff>0</rowOff>
-    </from>
-    <ext cx="6096000" cy="4572000"/>
-    <pic>
-      <nvPicPr>
-        <cNvPr id="1" name="Image 1" descr="Picture"/>
-        <cNvPicPr/>
-      </nvPicPr>
-      <blipFill>
-        <a:blip cstate="print" r:embed="rId1"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </blipFill>
-      <spPr>
-        <a:prstGeom prst="rect"/>
-      </spPr>
-    </pic>
-    <clientData/>
-  </oneCellAnchor>
-</wsDr>
-</file>
-
-<file path=xl/drawings/drawing7.xml><?xml version="1.0" encoding="utf-8"?>
-<wsDr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
-  <oneCellAnchor>
-    <from>
-      <col>0</col>
-      <colOff>0</colOff>
-      <row>0</row>
-      <rowOff>0</rowOff>
-    </from>
-    <ext cx="6096000" cy="4572000"/>
-    <pic>
-      <nvPicPr>
-        <cNvPr id="1" name="Image 1" descr="Picture"/>
-        <cNvPicPr/>
-      </nvPicPr>
-      <blipFill>
-        <a:blip cstate="print" r:embed="rId1"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </blipFill>
-      <spPr>
-        <a:prstGeom prst="rect"/>
-      </spPr>
-    </pic>
-    <clientData/>
-  </oneCellAnchor>
-</wsDr>
-</file>
-
-<file path=xl/drawings/drawing8.xml><?xml version="1.0" encoding="utf-8"?>
-<wsDr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
-  <oneCellAnchor>
-    <from>
-      <col>0</col>
-      <colOff>0</colOff>
-      <row>0</row>
-      <rowOff>0</rowOff>
-    </from>
-    <ext cx="6096000" cy="4572000"/>
-    <pic>
-      <nvPicPr>
-        <cNvPr id="1" name="Image 1" descr="Picture"/>
-        <cNvPicPr/>
-      </nvPicPr>
-      <blipFill>
-        <a:blip cstate="print" r:embed="rId1"/>
+  <oneCellAnchor>
+    <from>
+      <col>0</col>
+      <colOff>0</colOff>
+      <row>0</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="6096000" cy="4572000"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="2" name="Image 2" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip cstate="print" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>0</col>
+      <colOff>0</colOff>
+      <row>0</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="6096000" cy="4572000"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="3" name="Image 3" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip cstate="print" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>0</col>
+      <colOff>0</colOff>
+      <row>0</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="6096000" cy="4572000"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="4" name="Image 4" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip cstate="print" r:embed="rId4"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>0</col>
+      <colOff>0</colOff>
+      <row>0</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="6096000" cy="4572000"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="5" name="Image 5" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip cstate="print" r:embed="rId5"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>0</col>
+      <colOff>0</colOff>
+      <row>0</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="6096000" cy="4572000"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="6" name="Image 6" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip cstate="print" r:embed="rId6"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>0</col>
+      <colOff>0</colOff>
+      <row>0</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="6096000" cy="4572000"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="7" name="Image 7" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip cstate="print" r:embed="rId7"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>0</col>
+      <colOff>0</colOff>
+      <row>0</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="6096000" cy="4572000"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="8" name="Image 8" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip cstate="print" r:embed="rId8"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -667,140 +625,9 @@
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <drawing r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <drawing r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <drawing r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <drawing r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <drawing r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <drawing r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <drawing r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1" ht="300" customHeight="1"/>
+  </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <drawing r:id="rId1"/>
 </worksheet>

--- a/Extracted Data/VRU Headform - Color-wise graphs/2023_cars_combined.xlsx
+++ b/Extracted Data/VRU Headform - Color-wise graphs/2023_cars_combined.xlsx
@@ -7,7 +7,14 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Graphs" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Scatter Plot of D Green vs Car " sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Scatter Plot of Green vs Car Na" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="Scatter Plot of Yellow vs Car N" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="Scatter Plot of Orange vs Car N" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="Scatter Plot of Brown vs Car Na" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="Scatter Plot of Red vs Car Name" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet name="Scatter Plot of Default Red vs " sheetId="7" state="visible" r:id="rId7"/>
+    <sheet name="Scatter Plot of Blue vs Car Nam" sheetId="8" state="visible" r:id="rId8"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -151,6 +158,11 @@
     </pic>
     <clientData/>
   </oneCellAnchor>
+</wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<wsDr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
   <oneCellAnchor>
     <from>
       <col>0</col>
@@ -161,11 +173,11 @@
     <ext cx="6096000" cy="4572000"/>
     <pic>
       <nvPicPr>
-        <cNvPr id="2" name="Image 2" descr="Picture"/>
+        <cNvPr id="1" name="Image 1" descr="Picture"/>
         <cNvPicPr/>
       </nvPicPr>
       <blipFill>
-        <a:blip cstate="print" r:embed="rId2"/>
+        <a:blip cstate="print" r:embed="rId1"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -176,6 +188,11 @@
     </pic>
     <clientData/>
   </oneCellAnchor>
+</wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<wsDr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
   <oneCellAnchor>
     <from>
       <col>0</col>
@@ -186,11 +203,11 @@
     <ext cx="6096000" cy="4572000"/>
     <pic>
       <nvPicPr>
-        <cNvPr id="3" name="Image 3" descr="Picture"/>
+        <cNvPr id="1" name="Image 1" descr="Picture"/>
         <cNvPicPr/>
       </nvPicPr>
       <blipFill>
-        <a:blip cstate="print" r:embed="rId3"/>
+        <a:blip cstate="print" r:embed="rId1"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -201,6 +218,11 @@
     </pic>
     <clientData/>
   </oneCellAnchor>
+</wsDr>
+</file>
+
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<wsDr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
   <oneCellAnchor>
     <from>
       <col>0</col>
@@ -211,11 +233,11 @@
     <ext cx="6096000" cy="4572000"/>
     <pic>
       <nvPicPr>
-        <cNvPr id="4" name="Image 4" descr="Picture"/>
+        <cNvPr id="1" name="Image 1" descr="Picture"/>
         <cNvPicPr/>
       </nvPicPr>
       <blipFill>
-        <a:blip cstate="print" r:embed="rId4"/>
+        <a:blip cstate="print" r:embed="rId1"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -226,6 +248,11 @@
     </pic>
     <clientData/>
   </oneCellAnchor>
+</wsDr>
+</file>
+
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<wsDr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
   <oneCellAnchor>
     <from>
       <col>0</col>
@@ -236,11 +263,11 @@
     <ext cx="6096000" cy="4572000"/>
     <pic>
       <nvPicPr>
-        <cNvPr id="5" name="Image 5" descr="Picture"/>
+        <cNvPr id="1" name="Image 1" descr="Picture"/>
         <cNvPicPr/>
       </nvPicPr>
       <blipFill>
-        <a:blip cstate="print" r:embed="rId5"/>
+        <a:blip cstate="print" r:embed="rId1"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -251,6 +278,11 @@
     </pic>
     <clientData/>
   </oneCellAnchor>
+</wsDr>
+</file>
+
+<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
+<wsDr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
   <oneCellAnchor>
     <from>
       <col>0</col>
@@ -261,11 +293,11 @@
     <ext cx="6096000" cy="4572000"/>
     <pic>
       <nvPicPr>
-        <cNvPr id="6" name="Image 6" descr="Picture"/>
+        <cNvPr id="1" name="Image 1" descr="Picture"/>
         <cNvPicPr/>
       </nvPicPr>
       <blipFill>
-        <a:blip cstate="print" r:embed="rId6"/>
+        <a:blip cstate="print" r:embed="rId1"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -276,6 +308,11 @@
     </pic>
     <clientData/>
   </oneCellAnchor>
+</wsDr>
+</file>
+
+<file path=xl/drawings/drawing7.xml><?xml version="1.0" encoding="utf-8"?>
+<wsDr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
   <oneCellAnchor>
     <from>
       <col>0</col>
@@ -286,11 +323,11 @@
     <ext cx="6096000" cy="4572000"/>
     <pic>
       <nvPicPr>
-        <cNvPr id="7" name="Image 7" descr="Picture"/>
+        <cNvPr id="1" name="Image 1" descr="Picture"/>
         <cNvPicPr/>
       </nvPicPr>
       <blipFill>
-        <a:blip cstate="print" r:embed="rId7"/>
+        <a:blip cstate="print" r:embed="rId1"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -301,6 +338,11 @@
     </pic>
     <clientData/>
   </oneCellAnchor>
+</wsDr>
+</file>
+
+<file path=xl/drawings/drawing8.xml><?xml version="1.0" encoding="utf-8"?>
+<wsDr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
   <oneCellAnchor>
     <from>
       <col>0</col>
@@ -311,11 +353,11 @@
     <ext cx="6096000" cy="4572000"/>
     <pic>
       <nvPicPr>
-        <cNvPr id="8" name="Image 8" descr="Picture"/>
+        <cNvPr id="1" name="Image 1" descr="Picture"/>
         <cNvPicPr/>
       </nvPicPr>
       <blipFill>
-        <a:blip cstate="print" r:embed="rId8"/>
+        <a:blip cstate="print" r:embed="rId1"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -631,4 +673,151 @@
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" ht="300" customHeight="1"/>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" ht="300" customHeight="1"/>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" ht="300" customHeight="1"/>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" ht="300" customHeight="1"/>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" ht="300" customHeight="1"/>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" ht="300" customHeight="1"/>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" ht="300" customHeight="1"/>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>
--- a/Extracted Data/VRU Headform - Color-wise graphs/2023_cars_combined.xlsx
+++ b/Extracted Data/VRU Headform - Color-wise graphs/2023_cars_combined.xlsx
@@ -140,7 +140,7 @@
       <row>0</row>
       <rowOff>0</rowOff>
     </from>
-    <ext cx="6096000" cy="4572000"/>
+    <ext cx="6000750" cy="4476750"/>
     <pic>
       <nvPicPr>
         <cNvPr id="1" name="Image 1" descr="Picture"/>
@@ -170,7 +170,7 @@
       <row>0</row>
       <rowOff>0</rowOff>
     </from>
-    <ext cx="6096000" cy="4572000"/>
+    <ext cx="6000750" cy="4476750"/>
     <pic>
       <nvPicPr>
         <cNvPr id="1" name="Image 1" descr="Picture"/>
@@ -200,7 +200,7 @@
       <row>0</row>
       <rowOff>0</rowOff>
     </from>
-    <ext cx="6096000" cy="4572000"/>
+    <ext cx="6000750" cy="4476750"/>
     <pic>
       <nvPicPr>
         <cNvPr id="1" name="Image 1" descr="Picture"/>
@@ -230,7 +230,7 @@
       <row>0</row>
       <rowOff>0</rowOff>
     </from>
-    <ext cx="6096000" cy="4572000"/>
+    <ext cx="6000750" cy="4476750"/>
     <pic>
       <nvPicPr>
         <cNvPr id="1" name="Image 1" descr="Picture"/>
@@ -260,7 +260,7 @@
       <row>0</row>
       <rowOff>0</rowOff>
     </from>
-    <ext cx="6096000" cy="4572000"/>
+    <ext cx="6000750" cy="4476750"/>
     <pic>
       <nvPicPr>
         <cNvPr id="1" name="Image 1" descr="Picture"/>
@@ -290,7 +290,7 @@
       <row>0</row>
       <rowOff>0</rowOff>
     </from>
-    <ext cx="6096000" cy="4572000"/>
+    <ext cx="6000750" cy="4476750"/>
     <pic>
       <nvPicPr>
         <cNvPr id="1" name="Image 1" descr="Picture"/>
@@ -320,7 +320,7 @@
       <row>0</row>
       <rowOff>0</rowOff>
     </from>
-    <ext cx="6096000" cy="4572000"/>
+    <ext cx="6000750" cy="4476750"/>
     <pic>
       <nvPicPr>
         <cNvPr id="1" name="Image 1" descr="Picture"/>
@@ -350,7 +350,7 @@
       <row>0</row>
       <rowOff>0</rowOff>
     </from>
-    <ext cx="6096000" cy="4572000"/>
+    <ext cx="6000750" cy="4476750"/>
     <pic>
       <nvPicPr>
         <cNvPr id="1" name="Image 1" descr="Picture"/>

--- a/Extracted Data/VRU Headform - Color-wise graphs/2023_cars_combined.xlsx
+++ b/Extracted Data/VRU Headform - Color-wise graphs/2023_cars_combined.xlsx
@@ -7,14 +7,14 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Scatter Plot of D Green vs Car " sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="Scatter Plot of Green vs Car Na" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="Scatter Plot of Yellow vs Car N" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="Scatter Plot of Orange vs Car N" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet name="Scatter Plot of Brown vs Car Na" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet name="Scatter Plot of Red vs Car Name" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet name="Scatter Plot of Default Red vs " sheetId="7" state="visible" r:id="rId7"/>
-    <sheet name="Scatter Plot of Blue vs Car Nam" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet name="Car Names" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Car Names1" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="Car Names2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="Car Names3" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="Car Names4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="Car Names5" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet name="Car Names6" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet name="Car Names7" sheetId="8" state="visible" r:id="rId8"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>

--- a/Extracted Data/VRU Headform - Color-wise graphs/2023_cars_combined.xlsx
+++ b/Extracted Data/VRU Headform - Color-wise graphs/2023_cars_combined.xlsx
@@ -7,14 +7,14 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Car Names" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="Car Names1" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="Car Names2" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="Car Names3" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet name="Car Names4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet name="Car Names5" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet name="Car Names6" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet name="Car Names7" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet name="D Green" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Green" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="Yellow" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="Orange" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="Brown" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="Red" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet name="Default Red" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet name="Blue" sheetId="8" state="visible" r:id="rId8"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>

--- a/Extracted Data/VRU Headform - Color-wise graphs/2023_cars_combined.xlsx
+++ b/Extracted Data/VRU Headform - Color-wise graphs/2023_cars_combined.xlsx
@@ -7,14 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="D Green" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="Green" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="Yellow" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="Orange" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet name="Brown" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet name="Red" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet name="Default Red" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet name="Blue" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet name="Graphs" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -158,206 +151,171 @@
     </pic>
     <clientData/>
   </oneCellAnchor>
-</wsDr>
-</file>
-
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
-<wsDr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+  <oneCellAnchor>
+    <from>
+      <col>10</col>
+      <colOff>0</colOff>
+      <row>0</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="6000750" cy="4476750"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="2" name="Image 2" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip cstate="print" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>20</col>
+      <colOff>0</colOff>
+      <row>0</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="6000750" cy="4476750"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="3" name="Image 3" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip cstate="print" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
   <oneCellAnchor>
     <from>
       <col>0</col>
       <colOff>0</colOff>
-      <row>0</row>
-      <rowOff>0</rowOff>
-    </from>
-    <ext cx="6000750" cy="4476750"/>
-    <pic>
-      <nvPicPr>
-        <cNvPr id="1" name="Image 1" descr="Picture"/>
-        <cNvPicPr/>
-      </nvPicPr>
-      <blipFill>
-        <a:blip cstate="print" r:embed="rId1"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </blipFill>
-      <spPr>
-        <a:prstGeom prst="rect"/>
-      </spPr>
-    </pic>
-    <clientData/>
-  </oneCellAnchor>
-</wsDr>
-</file>
-
-<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
-<wsDr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+      <row>30</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="6000750" cy="4476750"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="4" name="Image 4" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip cstate="print" r:embed="rId4"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>10</col>
+      <colOff>0</colOff>
+      <row>30</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="6000750" cy="4476750"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="5" name="Image 5" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip cstate="print" r:embed="rId5"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>20</col>
+      <colOff>0</colOff>
+      <row>30</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="6000750" cy="4476750"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="6" name="Image 6" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip cstate="print" r:embed="rId6"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
   <oneCellAnchor>
     <from>
       <col>0</col>
       <colOff>0</colOff>
-      <row>0</row>
-      <rowOff>0</rowOff>
-    </from>
-    <ext cx="6000750" cy="4476750"/>
-    <pic>
-      <nvPicPr>
-        <cNvPr id="1" name="Image 1" descr="Picture"/>
-        <cNvPicPr/>
-      </nvPicPr>
-      <blipFill>
-        <a:blip cstate="print" r:embed="rId1"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </blipFill>
-      <spPr>
-        <a:prstGeom prst="rect"/>
-      </spPr>
-    </pic>
-    <clientData/>
-  </oneCellAnchor>
-</wsDr>
-</file>
-
-<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
-<wsDr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
-  <oneCellAnchor>
-    <from>
-      <col>0</col>
-      <colOff>0</colOff>
-      <row>0</row>
-      <rowOff>0</rowOff>
-    </from>
-    <ext cx="6000750" cy="4476750"/>
-    <pic>
-      <nvPicPr>
-        <cNvPr id="1" name="Image 1" descr="Picture"/>
-        <cNvPicPr/>
-      </nvPicPr>
-      <blipFill>
-        <a:blip cstate="print" r:embed="rId1"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </blipFill>
-      <spPr>
-        <a:prstGeom prst="rect"/>
-      </spPr>
-    </pic>
-    <clientData/>
-  </oneCellAnchor>
-</wsDr>
-</file>
-
-<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
-<wsDr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
-  <oneCellAnchor>
-    <from>
-      <col>0</col>
-      <colOff>0</colOff>
-      <row>0</row>
-      <rowOff>0</rowOff>
-    </from>
-    <ext cx="6000750" cy="4476750"/>
-    <pic>
-      <nvPicPr>
-        <cNvPr id="1" name="Image 1" descr="Picture"/>
-        <cNvPicPr/>
-      </nvPicPr>
-      <blipFill>
-        <a:blip cstate="print" r:embed="rId1"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </blipFill>
-      <spPr>
-        <a:prstGeom prst="rect"/>
-      </spPr>
-    </pic>
-    <clientData/>
-  </oneCellAnchor>
-</wsDr>
-</file>
-
-<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
-<wsDr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
-  <oneCellAnchor>
-    <from>
-      <col>0</col>
-      <colOff>0</colOff>
-      <row>0</row>
-      <rowOff>0</rowOff>
-    </from>
-    <ext cx="6000750" cy="4476750"/>
-    <pic>
-      <nvPicPr>
-        <cNvPr id="1" name="Image 1" descr="Picture"/>
-        <cNvPicPr/>
-      </nvPicPr>
-      <blipFill>
-        <a:blip cstate="print" r:embed="rId1"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </blipFill>
-      <spPr>
-        <a:prstGeom prst="rect"/>
-      </spPr>
-    </pic>
-    <clientData/>
-  </oneCellAnchor>
-</wsDr>
-</file>
-
-<file path=xl/drawings/drawing7.xml><?xml version="1.0" encoding="utf-8"?>
-<wsDr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
-  <oneCellAnchor>
-    <from>
-      <col>0</col>
-      <colOff>0</colOff>
-      <row>0</row>
-      <rowOff>0</rowOff>
-    </from>
-    <ext cx="6000750" cy="4476750"/>
-    <pic>
-      <nvPicPr>
-        <cNvPr id="1" name="Image 1" descr="Picture"/>
-        <cNvPicPr/>
-      </nvPicPr>
-      <blipFill>
-        <a:blip cstate="print" r:embed="rId1"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </blipFill>
-      <spPr>
-        <a:prstGeom prst="rect"/>
-      </spPr>
-    </pic>
-    <clientData/>
-  </oneCellAnchor>
-</wsDr>
-</file>
-
-<file path=xl/drawings/drawing8.xml><?xml version="1.0" encoding="utf-8"?>
-<wsDr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
-  <oneCellAnchor>
-    <from>
-      <col>0</col>
-      <colOff>0</colOff>
-      <row>0</row>
-      <rowOff>0</rowOff>
-    </from>
-    <ext cx="6000750" cy="4476750"/>
-    <pic>
-      <nvPicPr>
-        <cNvPr id="1" name="Image 1" descr="Picture"/>
-        <cNvPicPr/>
-      </nvPicPr>
-      <blipFill>
-        <a:blip cstate="print" r:embed="rId1"/>
+      <row>60</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="6000750" cy="4476750"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="7" name="Image 7" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip cstate="print" r:embed="rId7"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>10</col>
+      <colOff>0</colOff>
+      <row>60</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="6000750" cy="4476750"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="8" name="Image 8" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip cstate="print" r:embed="rId8"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -660,7 +618,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A1"/>
+  <dimension ref="A1:U61"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -668,154 +626,9 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" ht="300" customHeight="1"/>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <drawing r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" ht="300" customHeight="1"/>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <drawing r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" ht="300" customHeight="1"/>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <drawing r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" ht="300" customHeight="1"/>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <drawing r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" ht="300" customHeight="1"/>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <drawing r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" ht="300" customHeight="1"/>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <drawing r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" ht="300" customHeight="1"/>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <drawing r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" ht="300" customHeight="1"/>
+    <row r="1"/>
+    <row r="31"/>
+    <row r="61"/>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <drawing r:id="rId1"/>

--- a/Extracted Data/VRU Headform - Color-wise graphs/2023_cars_combined.xlsx
+++ b/Extracted Data/VRU Headform - Color-wise graphs/2023_cars_combined.xlsx
@@ -178,9 +178,9 @@
   </oneCellAnchor>
   <oneCellAnchor>
     <from>
-      <col>20</col>
-      <colOff>0</colOff>
-      <row>0</row>
+      <col>0</col>
+      <colOff>0</colOff>
+      <row>30</row>
       <rowOff>0</rowOff>
     </from>
     <ext cx="6000750" cy="4476750"/>
@@ -203,19 +203,44 @@
   </oneCellAnchor>
   <oneCellAnchor>
     <from>
+      <col>10</col>
+      <colOff>0</colOff>
+      <row>30</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="6000750" cy="4476750"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="4" name="Image 4" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip cstate="print" r:embed="rId4"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
       <col>0</col>
       <colOff>0</colOff>
-      <row>30</row>
-      <rowOff>0</rowOff>
-    </from>
-    <ext cx="6000750" cy="4476750"/>
-    <pic>
-      <nvPicPr>
-        <cNvPr id="4" name="Image 4" descr="Picture"/>
-        <cNvPicPr/>
-      </nvPicPr>
-      <blipFill>
-        <a:blip cstate="print" r:embed="rId4"/>
+      <row>60</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="6000750" cy="4476750"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="5" name="Image 5" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip cstate="print" r:embed="rId5"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -230,32 +255,7 @@
     <from>
       <col>10</col>
       <colOff>0</colOff>
-      <row>30</row>
-      <rowOff>0</rowOff>
-    </from>
-    <ext cx="6000750" cy="4476750"/>
-    <pic>
-      <nvPicPr>
-        <cNvPr id="5" name="Image 5" descr="Picture"/>
-        <cNvPicPr/>
-      </nvPicPr>
-      <blipFill>
-        <a:blip cstate="print" r:embed="rId5"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </blipFill>
-      <spPr>
-        <a:prstGeom prst="rect"/>
-      </spPr>
-    </pic>
-    <clientData/>
-  </oneCellAnchor>
-  <oneCellAnchor>
-    <from>
-      <col>20</col>
-      <colOff>0</colOff>
-      <row>30</row>
+      <row>60</row>
       <rowOff>0</rowOff>
     </from>
     <ext cx="6000750" cy="4476750"/>
@@ -280,7 +280,7 @@
     <from>
       <col>0</col>
       <colOff>0</colOff>
-      <row>60</row>
+      <row>90</row>
       <rowOff>0</rowOff>
     </from>
     <ext cx="6000750" cy="4476750"/>
@@ -305,7 +305,7 @@
     <from>
       <col>10</col>
       <colOff>0</colOff>
-      <row>60</row>
+      <row>90</row>
       <rowOff>0</rowOff>
     </from>
     <ext cx="6000750" cy="4476750"/>
@@ -618,7 +618,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:U61"/>
+  <dimension ref="A1:K91"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -629,6 +629,7 @@
     <row r="1"/>
     <row r="31"/>
     <row r="61"/>
+    <row r="91"/>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <drawing r:id="rId1"/>

--- a/Extracted Data/VRU Headform - Color-wise graphs/2023_cars_combined.xlsx
+++ b/Extracted Data/VRU Headform - Color-wise graphs/2023_cars_combined.xlsx
@@ -180,7 +180,7 @@
     <from>
       <col>0</col>
       <colOff>0</colOff>
-      <row>30</row>
+      <row>26</row>
       <rowOff>0</rowOff>
     </from>
     <ext cx="6000750" cy="4476750"/>
@@ -205,7 +205,7 @@
     <from>
       <col>10</col>
       <colOff>0</colOff>
-      <row>30</row>
+      <row>26</row>
       <rowOff>0</rowOff>
     </from>
     <ext cx="6000750" cy="4476750"/>
@@ -230,7 +230,7 @@
     <from>
       <col>0</col>
       <colOff>0</colOff>
-      <row>60</row>
+      <row>52</row>
       <rowOff>0</rowOff>
     </from>
     <ext cx="6000750" cy="4476750"/>
@@ -255,7 +255,7 @@
     <from>
       <col>10</col>
       <colOff>0</colOff>
-      <row>60</row>
+      <row>52</row>
       <rowOff>0</rowOff>
     </from>
     <ext cx="6000750" cy="4476750"/>
@@ -280,7 +280,7 @@
     <from>
       <col>0</col>
       <colOff>0</colOff>
-      <row>90</row>
+      <row>78</row>
       <rowOff>0</rowOff>
     </from>
     <ext cx="6000750" cy="4476750"/>
@@ -305,7 +305,7 @@
     <from>
       <col>10</col>
       <colOff>0</colOff>
-      <row>90</row>
+      <row>78</row>
       <rowOff>0</rowOff>
     </from>
     <ext cx="6000750" cy="4476750"/>
@@ -618,7 +618,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K91"/>
+  <dimension ref="A1:K79"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -627,9 +627,9 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1"/>
-    <row r="31"/>
-    <row r="61"/>
-    <row r="91"/>
+    <row r="27"/>
+    <row r="53"/>
+    <row r="79"/>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <drawing r:id="rId1"/>
